--- a/prelim_report.xlsx
+++ b/prelim_report.xlsx
@@ -8,103 +8,107 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paras Garg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E0BD98-B35E-44BC-8E85-7C9C3CE56727}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060F3BDF-9844-4E6C-A208-B337B63BCA98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7164" yWindow="1068" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4680" yWindow="972" windowWidth="17280" windowHeight="8964" xr2:uid="{3310C52E-F86B-4BE1-B00D-0C3C320F26ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
-  <si>
-    <t>SAMPLE ID</t>
-  </si>
-  <si>
-    <t>Assay:ERBALISA HIV GEN 3</t>
-  </si>
-  <si>
-    <t>Assay:  TMB-MICROLISA HIV(J-Mitra)</t>
-  </si>
-  <si>
-    <t>Assay : GENSCREEN ULTRA HIV Ag-Ab</t>
-  </si>
-  <si>
-    <t>Anti - HIV Status</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
+  <si>
+    <t>Assay : MERILISA HIV 1-2  GEN -3</t>
+  </si>
+  <si>
+    <t>Assay : TMB – MICROLISA HIV (J-Mitra)</t>
+  </si>
+  <si>
+    <t>Assay: GENSCREEN ULTRA HIV Ag-Ab</t>
+  </si>
+  <si>
+    <t>Anti-HIV Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    OD</t>
+  </si>
+  <si>
+    <t>Cut-off</t>
+  </si>
+  <si>
+    <t>S/co ratio</t>
   </si>
   <si>
     <t>OD</t>
   </si>
   <si>
-    <t>Cut-off</t>
-  </si>
-  <si>
-    <t>S/co ratio</t>
-  </si>
-  <si>
-    <t>HIV13/1</t>
-  </si>
-  <si>
     <t>NR</t>
   </si>
   <si>
-    <t>HIV13/2</t>
-  </si>
-  <si>
     <t>R</t>
-  </si>
-  <si>
-    <t>HIV13/3</t>
-  </si>
-  <si>
-    <t>HIV13/4</t>
-  </si>
-  <si>
-    <t>HIV13/5</t>
-  </si>
-  <si>
-    <t>HIV13/6</t>
-  </si>
-  <si>
-    <t>HIV13/7</t>
-  </si>
-  <si>
-    <t>HIV13/8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="gray125">
+        <bgColor rgb="FFD2D2D2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -112,18 +116,127 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -438,216 +551,348 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2492A7-90FE-4000-A77C-2FA854D3F346}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" activeCellId="1" sqref="K8 K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:11" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="10"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:11" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="J2" s="8"/>
+      <c r="K2" s="13"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="G3" s="3">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="3">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="F4" s="3">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="G4" s="3">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="3">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>2.1059999999999999</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="C5" s="3">
+        <v>8.7750000000000004</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2.4620000000000002</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="F5" s="3">
+        <v>6.69</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2.5950000000000002</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="3">
+        <v>10.38</v>
+      </c>
+      <c r="K5" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2" t="s">
+    <row r="6" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.192</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="G6" s="3">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="F7" s="3">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="G7" s="3">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="3">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>2.1059999999999999</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="C8" s="3">
+        <v>8.7750000000000004</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2.4620000000000002</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="F8" s="3">
+        <v>6.69</v>
+      </c>
+      <c r="G8" s="3">
+        <v>2.5950000000000002</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="3">
+        <v>10.38</v>
+      </c>
+      <c r="K8" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2" t="s">
-        <v>11</v>
+    <row r="9" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="D9" s="3">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="G9" s="3">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="3">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="G10" s="3">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="3">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
+  <mergeCells count="13">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="K1:K2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>